--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,7 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Pspn</t>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05405166666666666</v>
+        <v>0.4815393333333333</v>
       </c>
       <c r="H2">
-        <v>0.162155</v>
+        <v>1.444618</v>
       </c>
       <c r="I2">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="J2">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.048574</v>
+        <v>0.1389376666666667</v>
       </c>
       <c r="N2">
-        <v>0.145722</v>
+        <v>0.416813</v>
       </c>
       <c r="O2">
-        <v>0.005173961045635648</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="P2">
-        <v>0.005173961045635648</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="Q2">
-        <v>0.002625505656666667</v>
+        <v>0.06690395138155555</v>
       </c>
       <c r="R2">
-        <v>0.02362955091</v>
+        <v>0.602135562434</v>
       </c>
       <c r="S2">
-        <v>0.0003388021891146868</v>
+        <v>0.00622999989245567</v>
       </c>
       <c r="T2">
-        <v>0.0003388021891146868</v>
+        <v>0.006229999892455672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05405166666666666</v>
+        <v>0.4815393333333333</v>
       </c>
       <c r="H3">
-        <v>0.162155</v>
+        <v>1.444618</v>
       </c>
       <c r="I3">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="J3">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>12.660118</v>
       </c>
       <c r="O3">
-        <v>0.4495063021722917</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="P3">
-        <v>0.4495063021722917</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="Q3">
-        <v>0.2281001593655556</v>
+        <v>2.032114927213778</v>
       </c>
       <c r="R3">
-        <v>2.05290143429</v>
+        <v>18.289034344924</v>
       </c>
       <c r="S3">
-        <v>0.02943464743038286</v>
+        <v>0.1892276243266791</v>
       </c>
       <c r="T3">
-        <v>0.02943464743038286</v>
+        <v>0.1892276243266791</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,51 +661,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05405166666666666</v>
+        <v>0.4815393333333333</v>
       </c>
       <c r="H4">
-        <v>0.162155</v>
+        <v>1.444618</v>
       </c>
       <c r="I4">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="J4">
-        <v>0.0654821685216347</v>
+        <v>0.3617347224948818</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01908533333333333</v>
+        <v>3.708210666666667</v>
       </c>
       <c r="N4">
-        <v>0.05725599999999999</v>
+        <v>11.124632</v>
       </c>
       <c r="O4">
-        <v>0.002032914135332446</v>
+        <v>0.4596658488544727</v>
       </c>
       <c r="P4">
-        <v>0.002032914135332446</v>
+        <v>0.4596658488544728</v>
       </c>
       <c r="Q4">
-        <v>0.001031594075555556</v>
+        <v>1.785649292286222</v>
       </c>
       <c r="R4">
-        <v>0.009284346679999998</v>
+        <v>16.070843630576</v>
       </c>
       <c r="S4">
-        <v>0.0001331196259998525</v>
+        <v>0.1662770982757469</v>
       </c>
       <c r="T4">
-        <v>0.0001331196259998525</v>
+        <v>0.166277098275747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -717,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05405166666666666</v>
+        <v>0.259826</v>
       </c>
       <c r="H5">
-        <v>0.162155</v>
+        <v>0.779478</v>
       </c>
       <c r="I5">
-        <v>0.0654821685216347</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="J5">
-        <v>0.0654821685216347</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.100466333333333</v>
+        <v>0.1389376666666667</v>
       </c>
       <c r="N5">
-        <v>15.301399</v>
+        <v>0.416813</v>
       </c>
       <c r="O5">
-        <v>0.5432868226467401</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="P5">
-        <v>0.5432868226467401</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="Q5">
-        <v>0.2756887060938889</v>
+        <v>0.03609961817933333</v>
       </c>
       <c r="R5">
-        <v>2.481198354845</v>
+        <v>0.324896563614</v>
       </c>
       <c r="S5">
-        <v>0.0355755992761373</v>
+        <v>0.003361544613296776</v>
       </c>
       <c r="T5">
-        <v>0.0355755992761373</v>
+        <v>0.003361544613296776</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4997963333333333</v>
+        <v>0.259826</v>
       </c>
       <c r="H6">
-        <v>1.499389</v>
+        <v>0.779478</v>
       </c>
       <c r="I6">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="J6">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.048574</v>
+        <v>4.220039333333333</v>
       </c>
       <c r="N6">
-        <v>0.145722</v>
+        <v>12.660118</v>
       </c>
       <c r="O6">
-        <v>0.005173961045635648</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="P6">
-        <v>0.005173961045635648</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="Q6">
-        <v>0.02427710709533333</v>
+        <v>1.096475939822667</v>
       </c>
       <c r="R6">
-        <v>0.218493963858</v>
+        <v>9.868283458403999</v>
       </c>
       <c r="S6">
-        <v>0.003132782063670446</v>
+        <v>0.102102265204304</v>
       </c>
       <c r="T6">
-        <v>0.003132782063670445</v>
+        <v>0.102102265204304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4997963333333333</v>
+        <v>0.259826</v>
       </c>
       <c r="H7">
-        <v>1.499389</v>
+        <v>0.779478</v>
       </c>
       <c r="I7">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="J7">
-        <v>0.6054900754061566</v>
+        <v>0.1951825728468463</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.220039333333333</v>
+        <v>3.708210666666667</v>
       </c>
       <c r="N7">
-        <v>12.660118</v>
+        <v>11.124632</v>
       </c>
       <c r="O7">
-        <v>0.4495063021722917</v>
+        <v>0.4596658488544727</v>
       </c>
       <c r="P7">
-        <v>0.4495063021722917</v>
+        <v>0.4596658488544728</v>
       </c>
       <c r="Q7">
-        <v>2.109160185322444</v>
+        <v>0.9634895446773333</v>
       </c>
       <c r="R7">
-        <v>18.982441667902</v>
+        <v>8.671405902096</v>
       </c>
       <c r="S7">
-        <v>0.2721716047978435</v>
+        <v>0.08971876302924559</v>
       </c>
       <c r="T7">
-        <v>0.2721716047978435</v>
+        <v>0.08971876302924559</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -903,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.5898293333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.769488</v>
+      </c>
+      <c r="I8">
+        <v>0.4430827046582718</v>
+      </c>
+      <c r="J8">
+        <v>0.4430827046582719</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.4997963333333333</v>
-      </c>
-      <c r="H8">
-        <v>1.499389</v>
-      </c>
-      <c r="I8">
-        <v>0.6054900754061566</v>
-      </c>
-      <c r="J8">
-        <v>0.6054900754061566</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.01908533333333333</v>
+        <v>0.1389376666666667</v>
       </c>
       <c r="N8">
-        <v>0.05725599999999999</v>
+        <v>0.416813</v>
       </c>
       <c r="O8">
-        <v>0.002032914135332446</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="P8">
-        <v>0.002032914135332446</v>
+        <v>0.01722256533596611</v>
       </c>
       <c r="Q8">
-        <v>0.009538779620444443</v>
+        <v>0.08194951130488888</v>
       </c>
       <c r="R8">
-        <v>0.08584901658399999</v>
+        <v>0.737545601744</v>
       </c>
       <c r="S8">
-        <v>0.001230909333096684</v>
+        <v>0.007631020830213661</v>
       </c>
       <c r="T8">
-        <v>0.001230909333096684</v>
+        <v>0.007631020830213663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -965,25 +962,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.4997963333333333</v>
+        <v>0.5898293333333333</v>
       </c>
       <c r="H9">
-        <v>1.499389</v>
+        <v>1.769488</v>
       </c>
       <c r="I9">
-        <v>0.6054900754061566</v>
+        <v>0.4430827046582718</v>
       </c>
       <c r="J9">
-        <v>0.6054900754061566</v>
+        <v>0.4430827046582719</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.100466333333333</v>
+        <v>4.220039333333333</v>
       </c>
       <c r="N9">
-        <v>15.301399</v>
+        <v>12.660118</v>
       </c>
       <c r="O9">
-        <v>0.5432868226467401</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="P9">
-        <v>0.5432868226467401</v>
+        <v>0.5231115858095611</v>
       </c>
       <c r="Q9">
-        <v>2.549194371690111</v>
+        <v>2.489102986620444</v>
       </c>
       <c r="R9">
-        <v>22.942749345211</v>
+        <v>22.401926879584</v>
       </c>
       <c r="S9">
-        <v>0.3289547792115459</v>
+        <v>0.231781696278578</v>
       </c>
       <c r="T9">
-        <v>0.3289547792115459</v>
+        <v>0.231781696278578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,232 +1033,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.271593</v>
+        <v>0.5898293333333333</v>
       </c>
       <c r="H10">
-        <v>0.814779</v>
+        <v>1.769488</v>
       </c>
       <c r="I10">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582718</v>
       </c>
       <c r="J10">
-        <v>0.3290277560722087</v>
+        <v>0.4430827046582719</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.048574</v>
+        <v>3.708210666666667</v>
       </c>
       <c r="N10">
-        <v>0.145722</v>
+        <v>11.124632</v>
       </c>
       <c r="O10">
-        <v>0.005173961045635648</v>
+        <v>0.4596658488544727</v>
       </c>
       <c r="P10">
-        <v>0.005173961045635648</v>
+        <v>0.4596658488544728</v>
       </c>
       <c r="Q10">
-        <v>0.013192358382</v>
+        <v>2.187211425379556</v>
       </c>
       <c r="R10">
-        <v>0.118731225438</v>
+        <v>19.684902828416</v>
       </c>
       <c r="S10">
-        <v>0.001702376792850516</v>
+        <v>0.2036699875494802</v>
       </c>
       <c r="T10">
-        <v>0.001702376792850516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.271593</v>
-      </c>
-      <c r="H11">
-        <v>0.814779</v>
-      </c>
-      <c r="I11">
-        <v>0.3290277560722087</v>
-      </c>
-      <c r="J11">
-        <v>0.3290277560722087</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.220039333333333</v>
-      </c>
-      <c r="N11">
-        <v>12.660118</v>
-      </c>
-      <c r="O11">
-        <v>0.4495063021722917</v>
-      </c>
-      <c r="P11">
-        <v>0.4495063021722917</v>
-      </c>
-      <c r="Q11">
-        <v>1.146133142658</v>
-      </c>
-      <c r="R11">
-        <v>10.315198283922</v>
-      </c>
-      <c r="S11">
-        <v>0.1479000499440654</v>
-      </c>
-      <c r="T11">
-        <v>0.1479000499440653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.271593</v>
-      </c>
-      <c r="H12">
-        <v>0.814779</v>
-      </c>
-      <c r="I12">
-        <v>0.3290277560722087</v>
-      </c>
-      <c r="J12">
-        <v>0.3290277560722087</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.01908533333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.05725599999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.002032914135332446</v>
-      </c>
-      <c r="P12">
-        <v>0.002032914135332446</v>
-      </c>
-      <c r="Q12">
-        <v>0.005183442936000001</v>
-      </c>
-      <c r="R12">
-        <v>0.046650986424</v>
-      </c>
-      <c r="S12">
-        <v>0.0006688851762359093</v>
-      </c>
-      <c r="T12">
-        <v>0.0006688851762359089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.271593</v>
-      </c>
-      <c r="H13">
-        <v>0.814779</v>
-      </c>
-      <c r="I13">
-        <v>0.3290277560722087</v>
-      </c>
-      <c r="J13">
-        <v>0.3290277560722087</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.100466333333333</v>
-      </c>
-      <c r="N13">
-        <v>15.301399</v>
-      </c>
-      <c r="O13">
-        <v>0.5432868226467401</v>
-      </c>
-      <c r="P13">
-        <v>0.5432868226467401</v>
-      </c>
-      <c r="Q13">
-        <v>1.385250952869</v>
-      </c>
-      <c r="R13">
-        <v>12.467258575821</v>
-      </c>
-      <c r="S13">
-        <v>0.1787564441590569</v>
-      </c>
-      <c r="T13">
-        <v>0.1787564441590569</v>
+        <v>0.2036699875494802</v>
       </c>
     </row>
   </sheetData>
